--- a/data/Santa Juana.xlsx
+++ b/data/Santa Juana.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tranque Acumulación Aguas Lluvia Las Corrientes</t>
+          <t>Central Hidroeléctrica San Carlos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Forestal Collicura Ltda</t>
+          <t>Inversiones San Carlos SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>420000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/09/2021</t>
+          <t>23/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153163044&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156279812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Tranque Acumulación Aguas Lluvia Las Corrientes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,20 +482,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Forestal Collicura Ltda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9903</v>
+        <v>250</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>06/09/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153163044&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20000</v>
+        <v>9903</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta de Cogeneración Eléctrica Santa Juana</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Compañía Eléctrica Santa Juana Ltda.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130163801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130087054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130163801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Planta de Cogeneración Eléctrica Santa Juana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Compañía Eléctrica Santa Juana Ltda.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>7000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>08/01/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130087054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO INTEGRAL DE TRANSFERENCIA</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Santa Juana</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>720</v>
+        <v>250</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7101919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO INTEGRAL DE TRANSFERENCIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Ilustre Municipalidad de Santa Juana</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>11/07/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7101919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Centro Integral de Transferencia de Residuos Comuna de Santa Juana</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Santa Juana</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7075649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Centro Integral de Transferencia de Residuos Comuna de Santa Juana</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Ilustre Municipalidad de Santa Juana</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7075649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>706</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Planta Stericycle Concepción</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Procesos Sanitarios SpA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5819970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Mejoramiento Tecnológico Planta Stericycle Concepción</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Procesos Sanitarios SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>18/07/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5819970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO INTEGRAL DE TRANSFERENCIA Santa Juana</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Santa Juana</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/01/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5183607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>CENTRO INTEGRAL DE TRANSFERENCIA Santa Juana</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Ilustre Municipalidad de Santa Juana</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>04/01/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5183607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nuevo Cementerio Municipal de Santa Juana</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Santa Juana</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>31/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Nuevo Cementerio Municipal de Santa Juana</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ilustre Municipalidad de Santa Juana</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>31/05/2010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1650</v>
+        <v>300</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificación PRMC (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRMC (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>20/06/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Ferroviario de insumos quimicos industriales desde Talcahuano hasta la Planta CFI Nueva Aldea . (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1423035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Santa Juana (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Santa Juana</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1377987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS (e-seia)</t>
+          <t>Plan Regulador Comunal de Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,20 +3074,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Caselli e Hija Ltda.</t>
+          <t>Ilustre Municipalidad de Santa Juana</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07/04/2006</t>
+          <t>20/04/2006</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1377987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Caselli e Hija Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>07/04/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1365100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MICHAEL CASELLI RAMIREZ</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>41</v>
+        <v>4000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS DERIVADOS DE LA ATENCION DE SALUD Y RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>MICHAEL CASELLI RAMIREZ</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4000</v>
+        <v>41</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación de actividades realizadas al interior del predio A-2, camino a Tanahuillín (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Santa Juana</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>3517</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13/09/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1016930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación de actividades realizadas al interior del predio A-2, camino a Tanahuillín (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Ilustre Municipalidad de Santa Juana</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>13/09/2005</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1016930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Club de Campo Valle Alto del Sol</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Inversiones e Inmobiliaria Paso Largo S.A. Y Inversiones e Inmobiliaria Future Land S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>930</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Plan de Manejo y Cierre Controlado del Vertedero Municipal de Santa Juana</t>
+          <t>Club de Campo Valle Alto del Sol</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Santa Juana</t>
+          <t>Inversiones e Inmobiliaria Paso Largo S.A. Y Inversiones e Inmobiliaria Future Land S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>930</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16/08/2001</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4214&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Plan Regulador Metropolitano de Concepción</t>
+          <t>Plan de Manejo y Cierre Controlado del Vertedero Municipal de Santa Juana</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (VIII Región)</t>
+          <t>I. Municipalidad de Santa Juana</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>05/09/2000</t>
+          <t>16/08/2001</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4214&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Reposición Posta de Salud Rural La Generala</t>
+          <t>Plan Regulador Metropolitano de Concepción</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Santa Juana</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo (VIII Región)</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/08/1999</t>
+          <t>05/09/2000</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Reposición Posta de Salud Rural Tanahuillín</t>
+          <t>Reposición Posta de Salud Rural La Generala</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Reposición Posta de Salud Rural Chacay</t>
+          <t>Reposición Posta de Salud Rural Tanahuillín</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Santa Juana</t>
+          <t>Reposición Posta de Salud Rural Chacay</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>I. Municipalidad de Santa Juana</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1370</v>
+        <v>90</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>31/08/1999</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Planta de Incineración de Residuos Médico/Patológicos</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Santa Juana</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ambiomedical</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>260</v>
+        <v>1370</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/03/1999</t>
+          <t>09/04/1999</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1803&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,43 +4168,91 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>Planta de Incineración de Residuos Médico/Patológicos</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Ambiomedical</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>260</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>18/03/1999</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1803&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Santa Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>Oleoducto San Vicente-Temuco</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>Sociedad Nacional de Oleoductos S.A.</t>
         </is>
       </c>
-      <c r="F80" t="n">
+      <c r="F81" t="n">
         <v>47000</v>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>19/05/1997</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>Santa Juana</t>
         </is>

--- a/data/Santa Juana.xlsx
+++ b/data/Santa Juana.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/06/2022</t>
+          <t>30/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Santa Juana.xlsx
+++ b/data/Santa Juana.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
